--- a/biology/Botanique/Désiré_Georges_Jean_Marie_Bois/Désiré_Georges_Jean_Marie_Bois.xlsx
+++ b/biology/Botanique/Désiré_Georges_Jean_Marie_Bois/Désiré_Georges_Jean_Marie_Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sir%C3%A9_Georges_Jean_Marie_Bois</t>
+          <t>Désiré_Georges_Jean_Marie_Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Désiré Georges Jean Marie Bois ou Désiré Bois (9 octobre 1856 - 2 février 1946) est un botaniste, horticulteur et agronome français.
 De 1920 à 1932, il est directeur et professeur au Muséum national d'histoire naturelle de Paris. Il est président de la Société botanique de France, en 1920, puis lors d'un second mandat en 1931.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sir%C3%A9_Georges_Jean_Marie_Bois</t>
+          <t>Désiré_Georges_Jean_Marie_Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est élu membre de l'Académie des sciences coloniales en 1925[1]. Il est nommé chevalier de la Légion d'honneur en 1902 et est promu officier en 1932[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élu membre de l'Académie des sciences coloniales en 1925. Il est nommé chevalier de la Légion d'honneur en 1902 et est promu officier en 1932.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9sir%C3%A9_Georges_Jean_Marie_Bois</t>
+          <t>Désiré_Georges_Jean_Marie_Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas-Auguste Paillieux et Désiré Bois, Le Potager d'un curieux : Histoire, culture et usages de 100 plantes comestibles peu connues ou inconnues, Paris, Librairie agricole de la maison rustique, 1885, 294 p.
 D. Bois, Atlas des plantes de jardins et d'appartements exotiques et européennes, Klincksieck, 1896432 p. + 320 planches en trois tomes
